--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982054.55255435</v>
+        <v>979535.8841398708</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>178.7214297748855</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>381.4859536980655</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>81.21182540108268</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>2.76497747582746</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>7.157261199728727</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.29622800133903</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>94.61290824623228</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.82062748943023</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>188.7011904212655</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>270.5139490778472</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>36.41827022425642</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>340.9197087635358</v>
+        <v>276.0830593329819</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.6077720323801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114092</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>42.2604471480072</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009539</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034032</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337144</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672543</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793451</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>38.03682829123536</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206825</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.33703994142859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="D22" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>26.13627195705924</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892432</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.3175246302646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.6969570046969</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>125.3789405564513</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389036</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576156</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>113.7379149844577</v>
+        <v>99.9742741983401</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272852</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161915776</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060406</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833915</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892436</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2106.577233583055</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>1926.050536840746</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583055</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>2106.577233583055</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>2106.577233583055</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,19 +4407,19 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
         <v>1967.526114878149</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.3634259803388</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323091</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>606.5973764953485</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>603.8044699541086</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.0118908105785</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1688.365042002428</v>
+        <v>805.7846820932082</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>805.7846820932082</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>447.5189834864577</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583054</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>2106.577233583054</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="Y5" t="n">
-        <v>2074.96488206655</v>
+        <v>1192.38452215733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9870984135519</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>304.7087196946019</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>599.4122767260735</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
         <v>1867.77024428415</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.7002604214521</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>550.7002604214521</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>400.5836210091163</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>252.6705274267232</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>252.6705274267232</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>252.6705274267232</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288652</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288652</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W7" t="n">
-        <v>732.3487252516918</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>732.3487252516918</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>732.3487252516918</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.723851760222</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1380.761334819811</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267228</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997114</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736034</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760222</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>775.7875500159902</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.7875500159902</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1634.224011468286</v>
+        <v>1535.258832689357</v>
       </c>
       <c r="C11" t="n">
-        <v>1289.860669282897</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282897</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846524</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950448</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469196</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469196</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469196</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386836</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420329</v>
+        <v>704.5155104420328</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301226</v>
@@ -5063,28 +5063,28 @@
         <v>3835.937563882247</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234598</v>
+        <v>3925.553311234597</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234598</v>
+        <v>3826.588132455667</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750378</v>
+        <v>3622.786021971447</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382984</v>
+        <v>3369.295305604055</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039414</v>
+        <v>3038.232418260484</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769299</v>
+        <v>2685.46376299037</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.96318350822</v>
+        <v>2311.99800472929</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532408</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550305</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469196</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J12" t="n">
         <v>196.8120623792132</v>
@@ -5130,16 +5130,16 @@
         <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279344</v>
+        <v>1955.072021259919</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145094</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>968.4543104614102</v>
+        <v>203.8650582458577</v>
       </c>
       <c r="C13" t="n">
-        <v>925.7669901098876</v>
+        <v>203.8650582458577</v>
       </c>
       <c r="D13" t="n">
-        <v>775.6503506975519</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="E13" t="n">
-        <v>627.7372571151587</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172484</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="G13" t="n">
-        <v>313.3674120937911</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469196</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600403</v>
@@ -5212,7 +5212,7 @@
         <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715851</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
         <v>2060.002133082523</v>
@@ -5227,22 +5227,22 @@
         <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370158</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1888.302075370158</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1888.302075370158</v>
+        <v>1123.712823154606</v>
       </c>
       <c r="W13" t="n">
-        <v>1598.884905333197</v>
+        <v>834.2956531176449</v>
       </c>
       <c r="X13" t="n">
-        <v>1370.89535443518</v>
+        <v>606.3061022196275</v>
       </c>
       <c r="Y13" t="n">
-        <v>1150.10277529165</v>
+        <v>385.5135230760974</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555045</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614634</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007883</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409639</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200316</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364384</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594979</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619167</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608054</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608054</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.0885253246422</v>
+        <v>494.058990022073</v>
       </c>
       <c r="C16" t="n">
-        <v>576.1523423967353</v>
+        <v>494.058990022073</v>
       </c>
       <c r="D16" t="n">
-        <v>426.0357029843994</v>
+        <v>494.058990022073</v>
       </c>
       <c r="E16" t="n">
-        <v>278.1226094020064</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F16" t="n">
-        <v>131.2326619040961</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>131.2326619040961</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>131.2326619040961</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861979</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.93629023339</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.529569298412</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.7369901548819</v>
+        <v>675.7074548523127</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708867</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429798</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429798</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429798</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011264</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708887</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429818</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,16 +6020,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098247</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819179</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>664.302781469582</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681612</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783595</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,13 +6227,13 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,13 +6543,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.73097733562</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>929.73097733562</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408911</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429807</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1628.786163100838</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.368993063877</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.37944216586</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.37944216586</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400733</v>
       </c>
       <c r="C34" t="n">
-        <v>815.6411092982063</v>
+        <v>344.9174178121664</v>
       </c>
       <c r="D34" t="n">
-        <v>665.5244698858705</v>
+        <v>194.8007783998305</v>
       </c>
       <c r="E34" t="n">
-        <v>517.6113763034773</v>
+        <v>194.8007783998305</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138431</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>695.502065570313</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7123,7 +7123,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
         <v>1688.385853854706</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.6725264685176</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406107</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282751</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458821</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230674</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230674</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216013</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377265</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442287</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987573</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7606,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130813</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.454437538929909</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>186.5911984019037</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>24.35318300747173</v>
+        <v>89.18983243802569</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323801</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114092</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>124.9863739506206</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091725843</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034032</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613729006</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.16217041863466</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>43.76774845317368</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.4949402405087</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856708</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1584408891647</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.51445555167265</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393098</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>126.7587027673767</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>31.68313303847356</v>
+        <v>45.44677382459115</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185671</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194262</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237394</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.4467738245921</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228784</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893006.5023018188</v>
+        <v>893006.5023018189</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>971754.9414758099</v>
+        <v>971754.9414758096</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977115.13513818</v>
+        <v>977115.1351381801</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>977115.13513818</v>
+        <v>977115.1351381801</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
@@ -26320,28 +26320,28 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795043</v>
+        <v>405380.8397795044</v>
       </c>
       <c r="F2" t="n">
         <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="J2" t="n">
-        <v>443930.6298295036</v>
-      </c>
       <c r="K2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295034</v>
@@ -26353,7 +26353,7 @@
         <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185173</v>
+        <v>143114.1392185171</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051368</v>
+        <v>166521.3471051363</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.2362355788</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819063</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115386</v>
+        <v>37377.32855115364</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848876</v>
+        <v>43782.40655848864</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224648</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921024</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
         <v>9238.079399450547</v>
@@ -26436,7 +26436,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,16 +26445,16 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756597</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214723</v>
+        <v>86093.72216214721</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-892842.8562825107</v>
+        <v>-892842.8562825111</v>
       </c>
       <c r="C6" t="n">
-        <v>221908.9272934086</v>
+        <v>221908.9272934087</v>
       </c>
       <c r="D6" t="n">
-        <v>62487.65729551678</v>
+        <v>62487.65729551703</v>
       </c>
       <c r="E6" t="n">
-        <v>166934.8989993893</v>
+        <v>166724.9347555448</v>
       </c>
       <c r="F6" t="n">
-        <v>165479.7310464106</v>
+        <v>165433.8260508456</v>
       </c>
       <c r="G6" t="n">
-        <v>322303.6634132611</v>
+        <v>322268.9254878247</v>
       </c>
       <c r="H6" t="n">
-        <v>333470.8996488397</v>
+        <v>333436.1617234041</v>
       </c>
       <c r="I6" t="n">
-        <v>333470.8996488398</v>
+        <v>333436.161723404</v>
       </c>
       <c r="J6" t="n">
-        <v>165865.7218388573</v>
+        <v>165830.9839134215</v>
       </c>
       <c r="K6" t="n">
-        <v>333470.8996488398</v>
+        <v>333436.1617234037</v>
       </c>
       <c r="L6" t="n">
-        <v>285176.9296406492</v>
+        <v>285142.1917152132</v>
       </c>
       <c r="M6" t="n">
-        <v>296093.5710976858</v>
+        <v>296058.8331722503</v>
       </c>
       <c r="N6" t="n">
-        <v>289688.4930903511</v>
+        <v>289653.7551649155</v>
       </c>
       <c r="O6" t="n">
-        <v>330447.6016716151</v>
+        <v>330412.8637461793</v>
       </c>
       <c r="P6" t="n">
-        <v>333470.8996488398</v>
+        <v>333436.161723404</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26747,7 +26747,7 @@
         <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086495</v>
+        <v>981.3883278086493</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>122.3935669012587</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218288</v>
+        <v>145.8707812218283</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063571</v>
+        <v>149.9868724063566</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173568</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,16 +27039,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063573</v>
+        <v>149.9868724063564</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173568</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063571</v>
+        <v>149.9868724063566</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173568</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>186.5514619961221</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>4.751984957988043</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>170.9258179227453</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>222.9446779132097</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>374.773108872533</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>354.9417106547145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>52.63860090889659</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.7023708471608</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>165.9818511994175</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>57.2383093922877</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>189.2913851647807</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4.670300996855332e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-2.285481063986468e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4.713147794991619e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3.041122909053229e-12</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30672,7 +30672,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,10 +31850,10 @@
         <v>660.6327957845335</v>
       </c>
       <c r="N12" t="n">
-        <v>253.5391629626191</v>
+        <v>678.1177801147145</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431814</v>
+        <v>179.5642660017204</v>
       </c>
       <c r="P12" t="n">
         <v>497.8817840205475</v>
@@ -31862,7 +31862,7 @@
         <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533298</v>
       </c>
       <c r="S12" t="n">
         <v>48.42963285697591</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>427.3161054158224</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>380.8714430074312</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>69.4346584298473</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>553.5225306839443</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>518.4987618625153</v>
       </c>
       <c r="N12" t="n">
-        <v>122.1974508792858</v>
+        <v>546.7760680313812</v>
       </c>
       <c r="O12" t="n">
-        <v>477.749043298737</v>
+        <v>36.96802155727595</v>
       </c>
       <c r="P12" t="n">
         <v>363.9073766062172</v>
@@ -35510,7 +35510,7 @@
         <v>192.8390133211633</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936581</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977576</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>295.9743933324891</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
